--- a/data/raw/startingCondition.xlsx
+++ b/data/raw/startingCondition.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LiverProject\dataAnalysis\dFBA\COBRA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stories\Glutamine\matlab\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>Taurine</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Sum missing</t>
+  </si>
+  <si>
+    <t>Huh7</t>
   </si>
 </sst>
 </file>
@@ -681,8 +684,102 @@
           </c:val>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FCS+DMEM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>730.28740600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>429.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>749.67692000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181.15016400000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184.50805200000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>732.37403000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>745.97403000000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>364.52067799999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>372.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>739.53278</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>360.39385200000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$2</c:f>
@@ -771,100 +868,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FCS+DMEM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$8:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>730.28740600000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>376.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>429.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93.800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>749.67692000000011</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>181.15016400000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>184.50805200000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>732.37403000000006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>745.97403000000008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>364.52067799999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>372.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>739.53278</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>360.39385200000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -874,11 +877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="296282384"/>
-        <c:axId val="296282776"/>
+        <c:axId val="217586944"/>
+        <c:axId val="147833712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296282384"/>
+        <c:axId val="217586944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296282776"/>
+        <c:crossAx val="147833712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296282776"/>
+        <c:axId val="147833712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296282384"/>
+        <c:crossAx val="217586944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1133,11 +1136,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="296283560"/>
-        <c:axId val="296283952"/>
+        <c:axId val="248600080"/>
+        <c:axId val="248600472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296283560"/>
+        <c:axId val="248600080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1149,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296283952"/>
+        <c:crossAx val="248600472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1154,7 +1157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296283952"/>
+        <c:axId val="248600472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1179,7 +1182,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296283560"/>
+        <c:crossAx val="248600080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1441,11 +1444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="296284736"/>
-        <c:axId val="296285128"/>
+        <c:axId val="248601256"/>
+        <c:axId val="248601648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="296284736"/>
+        <c:axId val="248601256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296285128"/>
+        <c:crossAx val="248601648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="296285128"/>
+        <c:axId val="248601648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296284736"/>
+        <c:crossAx val="248601256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1676,13 +1679,12 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51B69854-29F2-4057-B7B2-65C6BF7DE8F7}" type="CELLRANGE">
+                    <a:fld id="{D0909E35-4CFB-42A3-AB22-7788B39A1E2A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1700,7 +1702,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1709,13 +1710,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C5E5092-B415-4AB0-ACA5-937B5A825EED}" type="CELLRANGE">
+                    <a:fld id="{74480C5B-FD19-4954-8332-5A9B6C1A2E30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1733,7 +1733,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1742,13 +1741,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C09F9F9-11DA-4614-AE5C-8C4AEF4B2B15}" type="CELLRANGE">
+                    <a:fld id="{DAFF6E87-AFC4-4DBF-8622-76DC059B44FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1766,7 +1764,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1775,13 +1772,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABDFC9D0-7B29-4A5F-AACD-B6D0AD6EB15D}" type="CELLRANGE">
+                    <a:fld id="{F785ADAE-ED4E-4AED-BB4A-71DA0C317014}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1799,7 +1795,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1874,13 +1869,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69FDC3B0-B0C9-48C4-9DCB-891C3B23359B}" type="CELLRANGE">
+                    <a:fld id="{9F61B44D-9D61-466A-9BF4-5414307E3218}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1898,7 +1892,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1929,13 +1922,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AD7DC27-6852-42CD-BDF5-F51129EBDFFE}" type="CELLRANGE">
+                    <a:fld id="{C15E791D-162B-47FE-8FEC-FE0D4CEF4EDB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1953,7 +1945,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2131,7 +2122,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2347,11 +2337,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="296285912"/>
-        <c:axId val="296286304"/>
+        <c:axId val="248602432"/>
+        <c:axId val="248602824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="296285912"/>
+        <c:axId val="248602432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,12 +2398,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296286304"/>
+        <c:crossAx val="248602824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296286304"/>
+        <c:axId val="248602824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296285912"/>
+        <c:crossAx val="248602432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5105,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,7 +5123,7 @@
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -6132,7 +6122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
